--- a/biology/Botanique/Liber_(biologie)/Liber_(biologie).xlsx
+++ b/biology/Botanique/Liber_(biologie)/Liber_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liber ou phloème secondaire  est produit par le cambium, ou écorce intérieure de l'arbre, vers l'extérieur. C'est la zone où circule la sève élaborée.
 Le liber est constitué de tubes criblés, de leur cellule compagne, de parenchyme et de fibres.
 Dans la structure primaire, le phloème primaire conduit aussi la sève élaborée  mais n'a pas l'aspect feuilleté (liber = livre) du phloème secondaire. Il est donc impropre de dire « liber primaire », il faut dire « phloème ».
-Les fibres qu'il contient ont permis de réaliser des cordes dès le Néolithique[1]. Un peu plus tard, il a servi de support à l'écriture, en particulier dans les cultures précolombiennes mésoaméricaines, sous le nom de papier d'amate.
+Les fibres qu'il contient ont permis de réaliser des cordes dès le Néolithique. Un peu plus tard, il a servi de support à l'écriture, en particulier dans les cultures précolombiennes mésoaméricaines, sous le nom de papier d'amate.
 C'est Karl Wilhelm von Nägeli qui a créé le terme « phloem » en 1858.
 </t>
         </is>
